--- a/publisher/public/assets/PRISONS.xlsx
+++ b/publisher/public/assets/PRISONS.xlsx
@@ -20,7 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="population" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="population_by_type" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="population_by_race" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="population_by_gender" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="population_by_biological_sex" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="releases" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="releases_by_type" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="use_of_force" sheetId="17" state="visible" r:id="rId17"/>
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,11 +460,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>funding_type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>value</t>
         </is>
       </c>
@@ -475,155 +470,15 @@
           <t>2021</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>State Appropriation</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Grants</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Commissary and Fees</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Contract Beds</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Other Funding</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Unknown Funding</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>State Appropriation</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Grants</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Commissary and Fees</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Contract Beds</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Other Funding</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Unknown Funding</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -679,7 +534,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -697,7 +552,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -715,7 +570,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -733,7 +588,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -751,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -769,7 +624,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -787,7 +642,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -805,7 +660,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -823,7 +678,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -841,7 +696,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -859,7 +714,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -877,7 +732,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -895,7 +750,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -913,7 +768,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -931,7 +786,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -949,7 +804,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -967,7 +822,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -985,7 +840,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1003,7 +858,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1021,7 +876,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1039,7 +894,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1057,7 +912,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1075,7 +930,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1093,7 +948,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1111,7 +966,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1129,7 +984,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1147,7 +1002,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1165,7 +1020,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1183,7 +1038,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1201,7 +1056,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1219,7 +1074,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1237,7 +1092,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1255,7 +1110,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1273,7 +1128,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1291,7 +1146,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1309,7 +1164,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1327,7 +1182,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1345,7 +1200,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1363,7 +1218,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1381,7 +1236,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1399,7 +1254,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1417,7 +1272,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1435,7 +1290,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1453,7 +1308,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1471,7 +1326,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1489,7 +1344,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1507,7 +1362,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1525,7 +1380,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1543,7 +1398,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -1561,7 +1416,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -1579,7 +1434,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1597,7 +1452,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -1615,7 +1470,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -1633,7 +1488,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -1651,7 +1506,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -1669,7 +1524,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -1687,7 +1542,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -1705,7 +1560,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -1723,7 +1578,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -1741,7 +1596,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -1759,7 +1614,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -1777,7 +1632,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -1795,7 +1650,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -1813,7 +1668,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -1831,7 +1686,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -1849,7 +1704,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -1867,7 +1722,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -1885,7 +1740,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -1903,7 +1758,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -1921,7 +1776,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -1939,7 +1794,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -1957,7 +1812,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -1975,7 +1830,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -1993,7 +1848,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -2011,7 +1866,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -2029,7 +1884,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -2047,7 +1902,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -2065,7 +1920,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -2083,7 +1938,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -2101,7 +1956,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -2119,7 +1974,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -2137,7 +1992,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -2155,7 +2010,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -2173,7 +2028,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -2191,7 +2046,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -2209,7 +2064,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -2227,7 +2082,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -2245,7 +2100,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -2263,7 +2118,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -2281,7 +2136,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -2299,7 +2154,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -2317,7 +2172,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -2335,7 +2190,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -2353,7 +2208,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -2371,7 +2226,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -2389,7 +2244,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -2407,7 +2262,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -2425,7 +2280,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -2443,7 +2298,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -2461,7 +2316,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -2479,7 +2334,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -2497,7 +2352,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -2515,7 +2370,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -2533,7 +2388,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -2551,7 +2406,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -2569,7 +2424,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -2587,7 +2442,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -2605,7 +2460,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -2623,7 +2478,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -2641,7 +2496,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -2659,7 +2514,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -2677,7 +2532,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -2695,7 +2550,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -2713,7 +2568,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -2731,7 +2586,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -2749,7 +2604,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -2767,7 +2622,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -2785,7 +2640,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -2803,7 +2658,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -2821,7 +2676,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -2839,7 +2694,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -2857,7 +2712,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -2875,7 +2730,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -2893,7 +2748,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -2911,7 +2766,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -2929,7 +2784,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -2947,7 +2802,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -2965,7 +2820,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -2983,7 +2838,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -3001,7 +2856,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -3019,7 +2874,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -3037,7 +2892,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -3055,7 +2910,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -3073,7 +2928,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -3091,7 +2946,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -3109,7 +2964,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -3127,7 +2982,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -3145,7 +3000,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -3163,7 +3018,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -3181,7 +3036,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -3199,7 +3054,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -3217,7 +3072,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -3235,7 +3090,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -3253,7 +3108,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -3660,7 +3515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -3678,7 +3533,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -3696,7 +3551,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -3714,7 +3569,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -3732,7 +3587,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -3750,7 +3605,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -3768,7 +3623,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -3786,7 +3641,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -3804,7 +3659,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -3822,7 +3677,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -3840,7 +3695,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -3858,7 +3713,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -3876,7 +3731,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -3894,7 +3749,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -3912,7 +3767,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -3930,7 +3785,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -3948,7 +3803,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -3966,7 +3821,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -3984,7 +3839,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -4002,7 +3857,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -4020,7 +3875,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -4038,7 +3893,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -4056,7 +3911,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -4074,7 +3929,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -4092,7 +3947,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -4110,7 +3965,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -4128,7 +3983,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -4146,7 +4001,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -4164,7 +4019,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -4182,7 +4037,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -4200,7 +4055,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -4218,7 +4073,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -4236,7 +4091,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -4254,7 +4109,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -4272,7 +4127,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -4290,7 +4145,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -4308,7 +4163,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -4326,7 +4181,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -4344,7 +4199,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -4362,7 +4217,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -4380,7 +4235,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -4398,7 +4253,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -4416,7 +4271,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -4434,7 +4289,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -4452,7 +4307,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -4470,7 +4325,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -4488,7 +4343,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -4506,7 +4361,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -4524,7 +4379,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -4542,7 +4397,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -4560,7 +4415,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -4578,7 +4433,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -4596,7 +4451,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -4614,7 +4469,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -4632,7 +4487,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -4650,7 +4505,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -4668,7 +4523,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -4686,7 +4541,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -4704,7 +4559,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -4722,7 +4577,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -4740,7 +4595,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4758,7 +4613,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -4776,7 +4631,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -4794,7 +4649,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4812,7 +4667,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -4830,7 +4685,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -4848,7 +4703,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4866,7 +4721,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4884,7 +4739,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -4902,7 +4757,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -4920,7 +4775,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -4938,7 +4793,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -4956,7 +4811,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -4974,7 +4829,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -4992,7 +4847,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -5010,7 +4865,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -5028,7 +4883,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -5046,7 +4901,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -5064,7 +4919,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -5082,7 +4937,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -5100,7 +4955,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -5118,7 +4973,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -5136,7 +4991,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -5154,7 +5009,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -5172,7 +5027,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -5190,7 +5045,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -5208,7 +5063,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -5226,7 +5081,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -5244,7 +5099,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -5262,7 +5117,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -5280,7 +5135,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -5298,7 +5153,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -5316,7 +5171,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -5334,7 +5189,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -5352,7 +5207,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -5370,7 +5225,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -5388,7 +5243,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -5406,7 +5261,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -5424,7 +5279,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -5442,7 +5297,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -5460,7 +5315,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -5478,7 +5333,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -5496,7 +5351,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -5514,7 +5369,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -5532,7 +5387,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -5550,7 +5405,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -5568,7 +5423,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -5586,7 +5441,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -5604,7 +5459,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -5622,7 +5477,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -5640,7 +5495,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -5658,7 +5513,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -5676,7 +5531,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -5694,7 +5549,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -5712,7 +5567,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -5730,7 +5585,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -5748,7 +5603,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -5766,7 +5621,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -5784,7 +5639,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -5802,7 +5657,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -5820,7 +5675,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -5838,7 +5693,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -5856,7 +5711,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -5874,7 +5729,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -5892,7 +5747,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -5910,7 +5765,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -5928,7 +5783,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -5946,7 +5801,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -5964,7 +5819,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -5982,7 +5837,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -6000,7 +5855,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -6018,7 +5873,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -6036,7 +5891,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -6054,7 +5909,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -6072,7 +5927,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -6090,7 +5945,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -6108,7 +5963,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -6126,7 +5981,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -6144,7 +5999,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Person Offenses</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -6162,7 +6017,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>Property Offenses</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -6180,7 +6035,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>Drug Offenses</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -6198,7 +6053,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Public Order</t>
+          <t>Public Order Offenses</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -6216,7 +6071,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other Offenses</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -6234,7 +6089,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Offenses</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -16659,7 +16514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16680,7 +16535,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>biological_sex</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -16702,7 +16557,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -16720,7 +16575,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -16738,7 +16593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -16751,12 +16606,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -16769,12 +16624,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -16792,7 +16647,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -16805,12 +16660,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -16823,12 +16678,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -16841,12 +16696,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -16859,12 +16714,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -16877,12 +16732,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -16895,12 +16750,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -16913,12 +16768,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -16931,12 +16786,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -16949,12 +16804,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -16967,12 +16822,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -16985,12 +16840,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -17003,12 +16858,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -17021,12 +16876,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -17039,12 +16894,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -17057,12 +16912,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -17075,12 +16930,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -17093,12 +16948,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -17111,12 +16966,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -17129,12 +16984,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -17147,12 +17002,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -17165,12 +17020,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -17183,12 +17038,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -17201,12 +17056,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -17219,12 +17074,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -17237,12 +17092,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -17255,12 +17110,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -17273,12 +17128,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -17291,12 +17146,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -17309,12 +17164,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -17327,12 +17182,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -17340,17 +17195,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -17358,17 +17213,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -17376,17 +17231,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -17394,17 +17249,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -17412,17 +17267,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -17430,17 +17285,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -17448,17 +17303,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -17466,17 +17321,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -17484,17 +17339,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -17502,17 +17357,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -17520,17 +17375,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -17538,17 +17393,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -17556,17 +17411,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -17574,17 +17429,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -17592,17 +17447,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -17610,17 +17465,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -17628,17 +17483,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -17646,17 +17501,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -17664,17 +17519,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -17682,17 +17537,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -17700,17 +17555,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -17718,17 +17573,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -17736,17 +17591,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -17754,17 +17609,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -17777,12 +17632,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -17795,12 +17650,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -17813,12 +17668,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -17831,12 +17686,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -17849,12 +17704,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -17867,12 +17722,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -17885,12 +17740,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -17903,12 +17758,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -17921,12 +17776,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Non-Binary</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -17939,12 +17794,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Male Biological Sex</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -17957,12 +17812,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female Biological Sex</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -17975,879 +17830,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Unknown Biological Sex</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Non-Binary</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Non-Binary</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Non-Binary</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Non-Binary</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Non-Binary</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Non-Binary</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Non-Binary</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Non-Binary</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Non-Binary</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Non-Binary</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22533,7 +21524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22549,6 +21540,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>funding_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>value</t>
         </is>
       </c>
@@ -22559,15 +21555,155 @@
           <t>2021</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>State Appropriation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Grants</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Commissary and Fees</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Contract Beds</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Other Funding</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown Funding</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>State Appropriation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grants</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Commissary and Fees</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Contract Beds</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Other Funding</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Unknown Funding</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publisher/public/assets/PRISONS.xlsx
+++ b/publisher/public/assets/PRISONS.xlsx
@@ -11,8 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="funding_by_type" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expenses" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expenses_by_type" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="total_staff" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="total_staff_by_type" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="staff" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="staff_by_type" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="readmissions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="readmissions_by_type" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="admissions" sheetId="9" state="visible" r:id="rId9"/>
@@ -24,9 +24,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="releases" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="releases_by_type" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="use_of_force" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="use_of_force_by_type" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grievances_upheld" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grievances_upheld_by_type" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grievances_upheld" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grievances_upheld_by_type" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18242,7 +18241,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -18260,7 +18259,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -18278,7 +18277,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -18296,7 +18295,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -18314,7 +18313,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -18332,7 +18331,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -18350,7 +18349,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -18368,7 +18367,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -18386,7 +18385,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -18404,7 +18403,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -18422,7 +18421,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -18440,7 +18439,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -18458,7 +18457,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -18476,7 +18475,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -18494,7 +18493,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -18512,7 +18511,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -18530,7 +18529,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -18548,7 +18547,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -18566,7 +18565,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -18584,7 +18583,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -18602,7 +18601,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -18620,7 +18619,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -18638,7 +18637,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -18656,7 +18655,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -18674,7 +18673,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -18692,7 +18691,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -18710,7 +18709,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -18728,7 +18727,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -18746,7 +18745,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -18764,7 +18763,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -18782,7 +18781,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -18800,7 +18799,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -18818,7 +18817,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -18836,7 +18835,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -18854,7 +18853,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -18872,7 +18871,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -18890,7 +18889,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -18908,7 +18907,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -18926,7 +18925,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -18944,7 +18943,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -18962,7 +18961,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -18980,7 +18979,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -18998,7 +18997,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -19016,7 +19015,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -19034,7 +19033,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -19052,7 +19051,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -19070,7 +19069,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -19088,7 +19087,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -19106,7 +19105,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -19124,7 +19123,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -19142,7 +19141,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -19160,7 +19159,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -19178,7 +19177,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -19196,7 +19195,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -19214,7 +19213,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -19232,7 +19231,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -19250,7 +19249,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -19268,7 +19267,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -19286,7 +19285,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -19304,7 +19303,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -19322,7 +19321,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -19340,7 +19339,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -19358,7 +19357,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -19376,7 +19375,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -19394,7 +19393,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -19412,7 +19411,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -19430,7 +19429,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -19448,7 +19447,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -19466,7 +19465,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -19484,7 +19483,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -19502,7 +19501,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -19520,7 +19519,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -19538,7 +19537,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -19556,7 +19555,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -19574,7 +19573,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -19592,7 +19591,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -19610,7 +19609,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -19628,7 +19627,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -19646,7 +19645,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -19664,7 +19663,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -19682,7 +19681,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -19700,7 +19699,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -19718,7 +19717,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -19736,7 +19735,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -19754,7 +19753,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -19772,7 +19771,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -19790,7 +19789,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -19808,7 +19807,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -19826,7 +19825,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -19844,7 +19843,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -19862,7 +19861,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -19880,7 +19879,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -19898,7 +19897,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -19916,7 +19915,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -19934,7 +19933,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -19952,7 +19951,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -19970,7 +19969,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -19988,7 +19987,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -20006,7 +20005,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -20024,7 +20023,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -20042,7 +20041,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -20060,7 +20059,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -20078,7 +20077,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -20096,7 +20095,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -20114,7 +20113,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -20132,7 +20131,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -20150,7 +20149,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -20168,7 +20167,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -20186,7 +20185,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -20204,7 +20203,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -20222,7 +20221,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -20240,7 +20239,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -20258,7 +20257,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -20276,7 +20275,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -20294,7 +20293,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -20312,7 +20311,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -20330,7 +20329,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -20348,7 +20347,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -20366,7 +20365,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -20384,7 +20383,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -20402,7 +20401,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -20420,7 +20419,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -20438,7 +20437,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -20456,7 +20455,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -20474,7 +20473,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -20492,7 +20491,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -20510,7 +20509,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -20528,7 +20527,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -20546,7 +20545,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -20564,7 +20563,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -20582,7 +20581,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -20600,7 +20599,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -20618,7 +20617,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -20636,7 +20635,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -20654,7 +20653,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -20672,7 +20671,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -20690,7 +20689,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -20708,7 +20707,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -20726,7 +20725,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -20744,7 +20743,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -20762,7 +20761,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -20780,7 +20779,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -20798,7 +20797,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -20816,7 +20815,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -20834,7 +20833,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -20852,7 +20851,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -20870,7 +20869,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -20888,7 +20887,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -20906,7 +20905,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -20924,7 +20923,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -20942,7 +20941,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -20960,7 +20959,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -20978,7 +20977,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -20996,7 +20995,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -21014,7 +21013,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -21032,7 +21031,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -21050,7 +21049,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -21068,7 +21067,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -21086,7 +21085,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
@@ -21104,7 +21103,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -21122,7 +21121,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -21140,7 +21139,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>To Parole Supervision</t>
+          <t>Releases from Prison to Probation Supervision</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -21158,7 +21157,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>To Probation Supervision</t>
+          <t>Releases from Prison to Parole Supervision</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -21176,7 +21175,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>To Other Community Supervision That Is Not Probation or Parole</t>
+          <t>Releases from Prison to Other Community Supervision That Is Not Probation or Parole</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -21194,7 +21193,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>No Additional Correctional Control</t>
+          <t>Releases from Prison to no Additional Correctional Control</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -21212,7 +21211,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Releases from Prison due to Death</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -21230,7 +21229,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Unknown Release</t>
+          <t>Other Releases from Prison</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -21248,7 +21247,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Other Release</t>
+          <t>Unknown Releases from Prison</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -21311,7 +21310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21327,11 +21326,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>force_type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>value</t>
         </is>
       </c>
@@ -21342,129 +21336,15 @@
           <t>2021</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Physical</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Restraint</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Verbal</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Weapon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Physical</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Restraint</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Verbal</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Weapon</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21477,7 +21357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21493,6 +21373,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>grievances_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>value</t>
         </is>
       </c>
@@ -21503,15 +21388,181 @@
           <t>2021</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Living Conditions</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Personal Safety</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Discrimination, Racial Bias, or Religious Practices</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Access to Health Care</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Other Grievance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unknown Grievance</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Living Conditions</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Personal Safety</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Discrimination, Racial Bias, or Religious Practices</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Access to Health Care</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Other Grievance</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Unknown Grievance</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21557,7 +21608,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>State Appropriation</t>
+          <t>State Appropriations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -21596,7 +21647,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Contract Beds</t>
+          <t>Contract Beds (Funding)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -21635,7 +21686,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>State Appropriation</t>
+          <t>State Appropriations</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -21674,7 +21725,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Contract Beds</t>
+          <t>Contract Beds (Funding)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -21704,224 +21755,6 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>grievances_type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Living Conditions</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Personal Safety</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Discrimination, Racial Bias, or Religious Practices</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Access to Health Care</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Legal</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Other Grievance</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Unknown Grievance</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Living Conditions</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Personal Safety</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Discrimination, Racial Bias, or Religious Practices</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Access to Health Care</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Legal</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Other Grievance</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Unknown Grievance</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22066,7 +21899,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Contract Beds</t>
+          <t>Contract Beds (Expenses)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -22079,7 +21912,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unknown Expenses</t>
+          <t>Other Expenses</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -22092,7 +21925,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Other Expenses</t>
+          <t>Unknown Expenses</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -22157,7 +21990,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Contract Beds</t>
+          <t>Contract Beds (Expenses)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -22170,7 +22003,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Unknown Expenses</t>
+          <t>Other Expenses</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -22183,7 +22016,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Other Expenses</t>
+          <t>Unknown Expenses</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -22305,7 +22138,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clinical or Medical Staff</t>
+          <t>Clinical and Medical Staff</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -22331,7 +22164,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vacant Positions (Any Staff Type)</t>
+          <t>Other Staff</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -22344,7 +22177,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Other Staff</t>
+          <t>Unknown Staff</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -22357,7 +22190,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unknown Staff</t>
+          <t>Vacant Positions (Any Staff Type)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -22396,7 +22229,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Clinical or Medical Staff</t>
+          <t>Clinical and Medical Staff</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -22422,7 +22255,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vacant Positions (Any Staff Type)</t>
+          <t>Other Staff</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -22435,7 +22268,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Other Staff</t>
+          <t>Unknown Staff</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -22448,7 +22281,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Unknown Staff</t>
+          <t>Vacant Positions (Any Staff Type)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -22511,7 +22344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22544,7 +22377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>New Conviction</t>
+          <t>Readmissions for a New Conviction</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -22557,7 +22390,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Return from Probation</t>
+          <t>Readmissions from Probation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -22570,7 +22403,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Return from Parole</t>
+          <t>Readmissions from Parole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -22583,7 +22416,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Other Readmissions</t>
+          <t>Readmissions from Other Community Supervision</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -22596,7 +22429,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unknown Post-Adjudication Readmission</t>
+          <t>Other Readmissions</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -22604,12 +22437,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>New Conviction</t>
+          <t>Unknown Readmissions</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -22622,7 +22455,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Return from Probation</t>
+          <t>Readmissions for a New Conviction</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -22635,7 +22468,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Return from Parole</t>
+          <t>Readmissions from Probation</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -22648,7 +22481,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Other Readmissions</t>
+          <t>Readmissions from Parole</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -22661,10 +22494,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Unknown Post-Adjudication Readmission</t>
+          <t>Readmissions from Other Community Supervision</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Other Readmissions</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Unknown Readmissions</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
